--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1536.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1536.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.420834703180271</v>
+        <v>1.487834453582764</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>2.765366315841675</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>6.87101411819458</v>
       </c>
       <c r="D1">
-        <v>1.528674028050932</v>
+        <v>1.747084140777588</v>
       </c>
       <c r="E1">
-        <v>0.7815577703169903</v>
+        <v>0.8957867622375488</v>
       </c>
     </row>
   </sheetData>
